--- a/campersData.xlsx
+++ b/campersData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbfca8ccf95c728f/back ups/Huji/courses/Introduction to AI/final project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noabenzikry/Desktop/ComputerScience/Intro-to-AI/AIFinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_5D1D01B8C24BEE0E62355476585DCE3A8747CA8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80601AF-4BCE-495C-BD85-CFDE0D2F7DB7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505DD41C-B1B0-2748-87E0-5C9B404B12CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -458,6 +458,7 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -809,15 +810,15 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6819</v>
       </c>
@@ -848,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -863,7 +864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6877</v>
       </c>
@@ -871,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -886,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7001</v>
       </c>
@@ -894,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -909,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7074</v>
       </c>
@@ -917,7 +918,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -932,7 +933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7142</v>
       </c>
@@ -940,7 +941,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -955,7 +956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6807</v>
       </c>
@@ -978,7 +979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6815</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6884</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7036</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7191</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7224</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7282</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7336</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7382</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7418</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7419</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7440</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7452</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7473</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7482</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7499</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7502</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7509</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7519</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7533</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7580</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6875</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6878</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6882</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6978</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6988</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7000</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7016</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7121</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7147</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7239</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7240</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7283</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7298</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7344</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7347</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7383</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7438</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7442</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7448</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7521</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7544</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7564</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7613</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6749</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>6785</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6818</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>6881</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6892</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6948</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7010</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7084</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7098</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7123</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7155</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7174</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7183</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7207</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7252</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>7277</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7367</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7371</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7387</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7412</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7417</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7445</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7449</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7450</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7462</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7490</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>7503</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7512</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7528</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7542</v>
       </c>
@@ -2657,7 +2658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>7554</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>7567</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7574</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>7586</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>7609</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>7148</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>7253</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>7384</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>7388</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>7389</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>7429</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>7435</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>7437</v>
       </c>
@@ -2956,7 +2957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>7568</v>
       </c>

--- a/campersData.xlsx
+++ b/campersData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noabenzikry/Desktop/ComputerScience/Intro-to-AI/AIFinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505DD41C-B1B0-2748-87E0-5C9B404B12CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8733F06-F1E4-6044-9382-8C0CD220979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="228">
   <si>
     <t>Registration ID</t>
   </si>
@@ -440,13 +440,277 @@
   </si>
   <si>
     <t>Ofir Malka</t>
+  </si>
+  <si>
+    <t>Ilan Sasson</t>
+  </si>
+  <si>
+    <t>Ofir Halevy</t>
+  </si>
+  <si>
+    <t>Barak Shani</t>
+  </si>
+  <si>
+    <t>Gal Carmi</t>
+  </si>
+  <si>
+    <t>Tamar Avital</t>
+  </si>
+  <si>
+    <t>Shira Koren</t>
+  </si>
+  <si>
+    <t>Yael Elbaz</t>
+  </si>
+  <si>
+    <t>Alma Rimon</t>
+  </si>
+  <si>
+    <t>Neta Azulay</t>
+  </si>
+  <si>
+    <t>Noa Tal</t>
+  </si>
+  <si>
+    <t>Galit Asher</t>
+  </si>
+  <si>
+    <t>Lior Harel</t>
+  </si>
+  <si>
+    <t>Roni Peretz</t>
+  </si>
+  <si>
+    <t>Maayan Katz</t>
+  </si>
+  <si>
+    <t>Shani Erez</t>
+  </si>
+  <si>
+    <t>Avigail Blum</t>
+  </si>
+  <si>
+    <t>Hadar Tzur</t>
+  </si>
+  <si>
+    <t>Liat Dayan</t>
+  </si>
+  <si>
+    <t>Inbar Sivan</t>
+  </si>
+  <si>
+    <t>Tal Shaked</t>
+  </si>
+  <si>
+    <t>Noga Ben-Shachar</t>
+  </si>
+  <si>
+    <t>Shira Alon</t>
+  </si>
+  <si>
+    <t>Ravit Levi</t>
+  </si>
+  <si>
+    <t>Talia Saar</t>
+  </si>
+  <si>
+    <t>Yaron Shalom</t>
+  </si>
+  <si>
+    <t>Erez Ben-Yosef</t>
+  </si>
+  <si>
+    <t>Shai Meir</t>
+  </si>
+  <si>
+    <t>Yiftach Rosen</t>
+  </si>
+  <si>
+    <t>Rami Ben-Simon</t>
+  </si>
+  <si>
+    <t>Ariel Zohar</t>
+  </si>
+  <si>
+    <t>Elad Tzvi</t>
+  </si>
+  <si>
+    <t>Doron Peretz</t>
+  </si>
+  <si>
+    <t>Itamar Shani</t>
+  </si>
+  <si>
+    <t>Matan Halevy</t>
+  </si>
+  <si>
+    <t>Eli Ben-Haim</t>
+  </si>
+  <si>
+    <t>Shimon Amir</t>
+  </si>
+  <si>
+    <t>Gal Yosef</t>
+  </si>
+  <si>
+    <t>Zohar Ben-Shimon</t>
+  </si>
+  <si>
+    <t>Omer Ben-Eli</t>
+  </si>
+  <si>
+    <t>Yossi Tzur</t>
+  </si>
+  <si>
+    <t>Moshe Klein</t>
+  </si>
+  <si>
+    <t>Ziv Maimon</t>
+  </si>
+  <si>
+    <t>Eitan Levy</t>
+  </si>
+  <si>
+    <t>Yehonatan Goldstein</t>
+  </si>
+  <si>
+    <t>Ronen Cohen</t>
+  </si>
+  <si>
+    <t>Boaz Regev</t>
+  </si>
+  <si>
+    <t>Amos Shahar</t>
+  </si>
+  <si>
+    <t>Raziel Kadosh</t>
+  </si>
+  <si>
+    <t>Yaniv Nahmias</t>
+  </si>
+  <si>
+    <t>Aviv Moshe</t>
+  </si>
+  <si>
+    <t>Ofer Azulay</t>
+  </si>
+  <si>
+    <t>Asaf Ben-Zvi</t>
+  </si>
+  <si>
+    <t>Alon Shavit</t>
+  </si>
+  <si>
+    <t>Liran Yaacov</t>
+  </si>
+  <si>
+    <t>Omri Geva</t>
+  </si>
+  <si>
+    <t>Nimrod Avraham</t>
+  </si>
+  <si>
+    <t>Tzvi Katz</t>
+  </si>
+  <si>
+    <t>Harel Levy</t>
+  </si>
+  <si>
+    <t>Ovadia Malka</t>
+  </si>
+  <si>
+    <t>Tomer Ashkenazi</t>
+  </si>
+  <si>
+    <t>Elior Dahan</t>
+  </si>
+  <si>
+    <t>Yadin Giladi</t>
+  </si>
+  <si>
+    <t>Shachar Sivan</t>
+  </si>
+  <si>
+    <t>Yonatan Atias</t>
+  </si>
+  <si>
+    <t>Amir Goren</t>
+  </si>
+  <si>
+    <t>Yehuda Ben-Tzion</t>
+  </si>
+  <si>
+    <t>Baruch Azoulay</t>
+  </si>
+  <si>
+    <t>Elazar Sasson</t>
+  </si>
+  <si>
+    <t>Golan Sharabi</t>
+  </si>
+  <si>
+    <t>Lavi Ben-David</t>
+  </si>
+  <si>
+    <t>Ziv Bar-On</t>
+  </si>
+  <si>
+    <t>Yaron Shani</t>
+  </si>
+  <si>
+    <t>Noam Tzur</t>
+  </si>
+  <si>
+    <t>Shlomi Avital</t>
+  </si>
+  <si>
+    <t>Ofek Mordechai</t>
+  </si>
+  <si>
+    <t>Aviv Ziv</t>
+  </si>
+  <si>
+    <t>Gadi Ashkenazi</t>
+  </si>
+  <si>
+    <t>Ben Sela</t>
+  </si>
+  <si>
+    <t>Yehiel Dayan</t>
+  </si>
+  <si>
+    <t>Maoz Ben-Nun</t>
+  </si>
+  <si>
+    <t>Amit Rahamim</t>
+  </si>
+  <si>
+    <t>Yishai Ben-Tzvi</t>
+  </si>
+  <si>
+    <t>Yuval Oren</t>
+  </si>
+  <si>
+    <t>Itai Shavit</t>
+  </si>
+  <si>
+    <t>Raz Danon</t>
+  </si>
+  <si>
+    <t>Elad Cohen</t>
+  </si>
+  <si>
+    <t>Eitan Gamliel</t>
+  </si>
+  <si>
+    <t>Shira White</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +723,13 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -496,11 +767,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,15 +1079,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182:G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2709,7 +2986,7 @@
         <v>7574</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
         <v>92</v>
@@ -2856,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F89" t="s">
         <v>28</v>
@@ -2879,7 +3156,7 @@
         <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
         <v>28</v>
@@ -2979,6 +3256,2121 @@
       <c r="G94" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D95" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F95" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" t="s">
+        <v>64</v>
+      </c>
+      <c r="D96" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>105</v>
+      </c>
+      <c r="G96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" t="s">
+        <v>68</v>
+      </c>
+      <c r="F100" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" t="s">
+        <v>116</v>
+      </c>
+      <c r="E106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" t="s">
+        <v>110</v>
+      </c>
+      <c r="G110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" t="s">
+        <v>66</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" t="s">
+        <v>110</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116" t="s">
+        <v>47</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" t="s">
+        <v>110</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" t="s">
+        <v>64</v>
+      </c>
+      <c r="D122" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" t="s">
+        <v>105</v>
+      </c>
+      <c r="F122" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" t="s">
+        <v>36</v>
+      </c>
+      <c r="G123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C125" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="s">
+        <v>68</v>
+      </c>
+      <c r="G126" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+      <c r="F127" t="s">
+        <v>105</v>
+      </c>
+      <c r="G127" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" t="s">
+        <v>105</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" t="s">
+        <v>47</v>
+      </c>
+      <c r="G130" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C131" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C132" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" t="s">
+        <v>47</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C133" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>49</v>
+      </c>
+      <c r="F133" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C134" t="s">
+        <v>131</v>
+      </c>
+      <c r="D134" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134" t="s">
+        <v>116</v>
+      </c>
+      <c r="F134" t="s">
+        <v>69</v>
+      </c>
+      <c r="G134" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" t="s">
+        <v>131</v>
+      </c>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" t="s">
+        <v>131</v>
+      </c>
+      <c r="D136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" t="s">
+        <v>131</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>105</v>
+      </c>
+      <c r="F137" t="s">
+        <v>80</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C138" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" t="s">
+        <v>80</v>
+      </c>
+      <c r="F138" t="s">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" t="s">
+        <v>131</v>
+      </c>
+      <c r="D139" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" t="s">
+        <v>80</v>
+      </c>
+      <c r="F139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C140" t="s">
+        <v>131</v>
+      </c>
+      <c r="D140" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" t="s">
+        <v>66</v>
+      </c>
+      <c r="F140" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C141" t="s">
+        <v>131</v>
+      </c>
+      <c r="D141" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" t="s">
+        <v>32</v>
+      </c>
+      <c r="F141" t="s">
+        <v>55</v>
+      </c>
+      <c r="G141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C142" t="s">
+        <v>131</v>
+      </c>
+      <c r="D142" t="s">
+        <v>50</v>
+      </c>
+      <c r="E142" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C143" t="s">
+        <v>131</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C144" t="s">
+        <v>131</v>
+      </c>
+      <c r="D144" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C145" t="s">
+        <v>131</v>
+      </c>
+      <c r="D145" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145" t="s">
+        <v>80</v>
+      </c>
+      <c r="F145" t="s">
+        <v>66</v>
+      </c>
+      <c r="G145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C146" t="s">
+        <v>131</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>110</v>
+      </c>
+      <c r="G146" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" t="s">
+        <v>131</v>
+      </c>
+      <c r="D147" t="s">
+        <v>116</v>
+      </c>
+      <c r="E147" t="s">
+        <v>105</v>
+      </c>
+      <c r="F147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148" t="s">
+        <v>110</v>
+      </c>
+      <c r="E148" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148" t="s">
+        <v>28</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C149" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
+        <v>68</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C150" t="s">
+        <v>131</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F150" t="s">
+        <v>80</v>
+      </c>
+      <c r="G150" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C151" t="s">
+        <v>131</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" t="s">
+        <v>131</v>
+      </c>
+      <c r="D152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" t="s">
+        <v>40</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C153" t="s">
+        <v>131</v>
+      </c>
+      <c r="D153" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C154" t="s">
+        <v>131</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" t="s">
+        <v>69</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C155" t="s">
+        <v>131</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" t="s">
+        <v>69</v>
+      </c>
+      <c r="F155" t="s">
+        <v>105</v>
+      </c>
+      <c r="G155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" t="s">
+        <v>131</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" t="s">
+        <v>105</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" t="s">
+        <v>131</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>35</v>
+      </c>
+      <c r="F157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" t="s">
+        <v>131</v>
+      </c>
+      <c r="D158" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158" t="s">
+        <v>68</v>
+      </c>
+      <c r="F158" t="s">
+        <v>110</v>
+      </c>
+      <c r="G158" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C159" t="s">
+        <v>131</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" t="s">
+        <v>47</v>
+      </c>
+      <c r="G159" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C160" t="s">
+        <v>131</v>
+      </c>
+      <c r="D160" t="s">
+        <v>36</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C161" t="s">
+        <v>131</v>
+      </c>
+      <c r="D161" t="s">
+        <v>30</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>40</v>
+      </c>
+      <c r="G161" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C162" t="s">
+        <v>131</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" t="s">
+        <v>66</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C163" t="s">
+        <v>131</v>
+      </c>
+      <c r="D163" t="s">
+        <v>116</v>
+      </c>
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163" t="s">
+        <v>35</v>
+      </c>
+      <c r="G163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" t="s">
+        <v>131</v>
+      </c>
+      <c r="D164" t="s">
+        <v>41</v>
+      </c>
+      <c r="E164" t="s">
+        <v>66</v>
+      </c>
+      <c r="F164" t="s">
+        <v>50</v>
+      </c>
+      <c r="G164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C165" t="s">
+        <v>131</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C166" t="s">
+        <v>131</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" t="s">
+        <v>24</v>
+      </c>
+      <c r="F166" t="s">
+        <v>50</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C167" t="s">
+        <v>131</v>
+      </c>
+      <c r="D167" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C168" t="s">
+        <v>131</v>
+      </c>
+      <c r="D168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="s">
+        <v>50</v>
+      </c>
+      <c r="G168" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C169" t="s">
+        <v>131</v>
+      </c>
+      <c r="D169" t="s">
+        <v>105</v>
+      </c>
+      <c r="E169" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C170" t="s">
+        <v>131</v>
+      </c>
+      <c r="D170" t="s">
+        <v>105</v>
+      </c>
+      <c r="E170" t="s">
+        <v>30</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C171" t="s">
+        <v>131</v>
+      </c>
+      <c r="D171" t="s">
+        <v>80</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" t="s">
+        <v>116</v>
+      </c>
+      <c r="G171" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C172" t="s">
+        <v>131</v>
+      </c>
+      <c r="D172" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" t="s">
+        <v>41</v>
+      </c>
+      <c r="G172" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C173" t="s">
+        <v>131</v>
+      </c>
+      <c r="D173" t="s">
+        <v>50</v>
+      </c>
+      <c r="E173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" t="s">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D174" t="s">
+        <v>50</v>
+      </c>
+      <c r="E174" t="s">
+        <v>36</v>
+      </c>
+      <c r="F174" t="s">
+        <v>66</v>
+      </c>
+      <c r="G174" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C175" t="s">
+        <v>131</v>
+      </c>
+      <c r="D175" t="s">
+        <v>50</v>
+      </c>
+      <c r="E175" t="s">
+        <v>68</v>
+      </c>
+      <c r="F175" t="s">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C176" t="s">
+        <v>131</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" t="s">
+        <v>68</v>
+      </c>
+      <c r="F176" t="s">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B177" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C177" t="s">
+        <v>131</v>
+      </c>
+      <c r="D177" t="s">
+        <v>116</v>
+      </c>
+      <c r="E177" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>41</v>
+      </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B178" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C178" t="s">
+        <v>131</v>
+      </c>
+      <c r="D178" t="s">
+        <v>68</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" t="s">
+        <v>50</v>
+      </c>
+      <c r="G178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B179" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C179" t="s">
+        <v>64</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" t="s">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B180" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C180" t="s">
+        <v>64</v>
+      </c>
+      <c r="D180" t="s">
+        <v>80</v>
+      </c>
+      <c r="E180" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" t="s">
+        <v>41</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B181" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C181" t="s">
+        <v>64</v>
+      </c>
+      <c r="D181" t="s">
+        <v>24</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>25</v>
+      </c>
+      <c r="G181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B306" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/campersData.xlsx
+++ b/campersData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noabenzikry/Desktop/ComputerScience/Intro-to-AI/AIFinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8733F06-F1E4-6044-9382-8C0CD220979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B28CE8D-8B30-7F49-B3EE-8D4CBD2EBC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7520" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182:G201"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/campersData.xlsx
+++ b/campersData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noabenzikry/Desktop/ComputerScience/Intro-to-AI/AIFinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B28CE8D-8B30-7F49-B3EE-8D4CBD2EBC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37002EBB-8EA0-F148-A989-6824C0FB231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1081,12 +1081,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>

--- a/campersData.xlsx
+++ b/campersData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noabenzikry/Desktop/ComputerScience/Intro-to-AI/AIFinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37002EBB-8EA0-F148-A989-6824C0FB231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5CA16-6302-E741-B8A6-4E5086D5E768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="348">
   <si>
     <t>Registration ID</t>
   </si>
@@ -704,6 +704,366 @@
   </si>
   <si>
     <t>Shira White</t>
+  </si>
+  <si>
+    <t>Yaron Kedem</t>
+  </si>
+  <si>
+    <t>Ofir Gavriel</t>
+  </si>
+  <si>
+    <t>Omer Halevi</t>
+  </si>
+  <si>
+    <t>Tal Azaria</t>
+  </si>
+  <si>
+    <t>Erez Tamir</t>
+  </si>
+  <si>
+    <t>Matan Behar</t>
+  </si>
+  <si>
+    <t>Shmuel Shalom</t>
+  </si>
+  <si>
+    <t>Tzipora Cohen</t>
+  </si>
+  <si>
+    <t>Avital Shalev</t>
+  </si>
+  <si>
+    <t>Yaara Ben-Simon</t>
+  </si>
+  <si>
+    <t>Shoshana Klein</t>
+  </si>
+  <si>
+    <t>Hila Tzur</t>
+  </si>
+  <si>
+    <t>Ruth Ben-Yosef</t>
+  </si>
+  <si>
+    <t>Tali Avraham</t>
+  </si>
+  <si>
+    <t>Ronit Geva</t>
+  </si>
+  <si>
+    <t>Shani Ezra</t>
+  </si>
+  <si>
+    <t>Michal Shani</t>
+  </si>
+  <si>
+    <t>Irit Ben-Haim</t>
+  </si>
+  <si>
+    <t>Meital Dayan</t>
+  </si>
+  <si>
+    <t>Nili Goren</t>
+  </si>
+  <si>
+    <t>Maya Harari</t>
+  </si>
+  <si>
+    <t>David Cohen</t>
+  </si>
+  <si>
+    <t>Jacob Levi</t>
+  </si>
+  <si>
+    <t>Isaac Weiss</t>
+  </si>
+  <si>
+    <t>Samuel Goldstein</t>
+  </si>
+  <si>
+    <t>Eli Katz</t>
+  </si>
+  <si>
+    <t>Aaron Friedman</t>
+  </si>
+  <si>
+    <t>Moshe Stein</t>
+  </si>
+  <si>
+    <t>Daniel Rosen</t>
+  </si>
+  <si>
+    <t>Yitzhak Kaplan</t>
+  </si>
+  <si>
+    <t>Shimon Berger</t>
+  </si>
+  <si>
+    <t>Yonatan Shapiro</t>
+  </si>
+  <si>
+    <t>Reuven Adler</t>
+  </si>
+  <si>
+    <t>Hillel Goldberg</t>
+  </si>
+  <si>
+    <t>Levi Green</t>
+  </si>
+  <si>
+    <t>Ariel Silverman</t>
+  </si>
+  <si>
+    <t>Ezra Rubin</t>
+  </si>
+  <si>
+    <t>Yosef Blumenthal</t>
+  </si>
+  <si>
+    <t>Menachem Klein</t>
+  </si>
+  <si>
+    <t>Baruch Dahan</t>
+  </si>
+  <si>
+    <t>Asher Braun</t>
+  </si>
+  <si>
+    <t>Noah Miller</t>
+  </si>
+  <si>
+    <t>Liam Davis</t>
+  </si>
+  <si>
+    <t>Sarah Cohen</t>
+  </si>
+  <si>
+    <t>Miriam Levi</t>
+  </si>
+  <si>
+    <t>Rachel Weiss</t>
+  </si>
+  <si>
+    <t>Esther Goldstein</t>
+  </si>
+  <si>
+    <t>Hannah Katz</t>
+  </si>
+  <si>
+    <t>Leah Friedman</t>
+  </si>
+  <si>
+    <t>Rivka Stein</t>
+  </si>
+  <si>
+    <t>Naomi Rosen</t>
+  </si>
+  <si>
+    <t>Devorah Kaplan</t>
+  </si>
+  <si>
+    <t>Chaya Berger</t>
+  </si>
+  <si>
+    <t>Yael Shapiro</t>
+  </si>
+  <si>
+    <t>Tzipora Adler</t>
+  </si>
+  <si>
+    <t>Michal Goldberg</t>
+  </si>
+  <si>
+    <t>Aviva Green</t>
+  </si>
+  <si>
+    <t>Dina Silverman</t>
+  </si>
+  <si>
+    <t>Elisheva Rubin</t>
+  </si>
+  <si>
+    <t>Tova Blumenthal</t>
+  </si>
+  <si>
+    <t>Malka Klein</t>
+  </si>
+  <si>
+    <t>Shoshana Dahan</t>
+  </si>
+  <si>
+    <t>Ayala Braun</t>
+  </si>
+  <si>
+    <t>Noam Ben-Ami</t>
+  </si>
+  <si>
+    <t>Eitan Moyal</t>
+  </si>
+  <si>
+    <t>Yair Barak</t>
+  </si>
+  <si>
+    <t>Oren Sharabi</t>
+  </si>
+  <si>
+    <t>Shlomo Harari</t>
+  </si>
+  <si>
+    <t>Aviad Ben-David</t>
+  </si>
+  <si>
+    <t>Amir Golan</t>
+  </si>
+  <si>
+    <t>Yehuda Meir</t>
+  </si>
+  <si>
+    <t>Nadav Lavi</t>
+  </si>
+  <si>
+    <t>Gideon Halevi</t>
+  </si>
+  <si>
+    <t>Elior Mizrahi</t>
+  </si>
+  <si>
+    <t>Ronen Azoulay</t>
+  </si>
+  <si>
+    <t>Tomer Segal</t>
+  </si>
+  <si>
+    <t>Nir Avraham</t>
+  </si>
+  <si>
+    <t>Ziv Cohen</t>
+  </si>
+  <si>
+    <t>Yishai Levi</t>
+  </si>
+  <si>
+    <t>Aliza Levi</t>
+  </si>
+  <si>
+    <t>Dikla Regev</t>
+  </si>
+  <si>
+    <t>Tamar Zohar</t>
+  </si>
+  <si>
+    <t>Gili Rosen</t>
+  </si>
+  <si>
+    <t>Orit Bar-On</t>
+  </si>
+  <si>
+    <t>Shira Elbaz</t>
+  </si>
+  <si>
+    <t>Roni Meir</t>
+  </si>
+  <si>
+    <t>Shaked Katz</t>
+  </si>
+  <si>
+    <t>Sigal Mor</t>
+  </si>
+  <si>
+    <t>Lihi Maimon</t>
+  </si>
+  <si>
+    <t>Gal Sela</t>
+  </si>
+  <si>
+    <t>Nurit Azulay</t>
+  </si>
+  <si>
+    <t>Talia Sasson</t>
+  </si>
+  <si>
+    <t>Naomi Danon</t>
+  </si>
+  <si>
+    <t>Ayala Shalom</t>
+  </si>
+  <si>
+    <t>Dalia Levi</t>
+  </si>
+  <si>
+    <t>Inbal Tzvi</t>
+  </si>
+  <si>
+    <t>Lior Ben-David</t>
+  </si>
+  <si>
+    <t>Keren Ben-Simon</t>
+  </si>
+  <si>
+    <t>Ayelet Tamir</t>
+  </si>
+  <si>
+    <t>Yarden Ashkenazi</t>
+  </si>
+  <si>
+    <t>Moran Kedem</t>
+  </si>
+  <si>
+    <t>Galit Shavit</t>
+  </si>
+  <si>
+    <t>Tzila Peretz</t>
+  </si>
+  <si>
+    <t>Vered Rahamim</t>
+  </si>
+  <si>
+    <t>Haviva Tzur</t>
+  </si>
+  <si>
+    <t>Rina Ben-Shimon</t>
+  </si>
+  <si>
+    <t>Esther Malka</t>
+  </si>
+  <si>
+    <t>Dafna Regev</t>
+  </si>
+  <si>
+    <t>Hadar Shahar</t>
+  </si>
+  <si>
+    <t>Sigalit Sela</t>
+  </si>
+  <si>
+    <t>Haya Sasson</t>
+  </si>
+  <si>
+    <t>Nirit Ben-Zvi</t>
+  </si>
+  <si>
+    <t>Tehila Gavriel</t>
+  </si>
+  <si>
+    <t>Revital Shani</t>
+  </si>
+  <si>
+    <t>Leah Atias</t>
+  </si>
+  <si>
+    <t>Nava Ben-Tzvi</t>
+  </si>
+  <si>
+    <t>Yael Barak</t>
+  </si>
+  <si>
+    <t>Michal Avraham</t>
+  </si>
+  <si>
+    <t>Shira Eliezer</t>
+  </si>
+  <si>
+    <t>Orit Zohar</t>
   </si>
 </sst>
 </file>
@@ -1081,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95:G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3260,699 +3620,699 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E95" t="s">
         <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E99" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G100" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
         <v>36</v>
       </c>
-      <c r="E105" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105" t="s">
-        <v>12</v>
-      </c>
       <c r="G105" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G106" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E107" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G108" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E109" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G114" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="2" t="s">
-        <v>160</v>
+      <c r="B115" t="s">
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F115" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s">
         <v>28</v>
       </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B116" s="2" t="s">
-        <v>161</v>
+      <c r="B116" t="s">
+        <v>270</v>
       </c>
       <c r="C116" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" t="s">
+        <v>66</v>
+      </c>
+      <c r="G116" t="s">
         <v>47</v>
-      </c>
-      <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="C119" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E119" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="C120" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" t="s">
         <v>24</v>
       </c>
-      <c r="E120" t="s">
-        <v>110</v>
-      </c>
       <c r="F120" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="C122" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E122" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" t="s">
         <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="C123" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" t="s">
+        <v>69</v>
+      </c>
+      <c r="G123" t="s">
         <v>29</v>
-      </c>
-      <c r="F123" t="s">
-        <v>36</v>
-      </c>
-      <c r="G123" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D124" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G124" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D125" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="C126" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="G126" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F127" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D129" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="G129" t="s">
         <v>24</v>
@@ -3960,290 +4320,290 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
         <v>55</v>
       </c>
-      <c r="E130" t="s">
-        <v>66</v>
-      </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="C131" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D131" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="C133" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D133" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" t="s">
+        <v>45</v>
+      </c>
+      <c r="F133" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" t="s">
         <v>25</v>
-      </c>
-      <c r="E133" t="s">
-        <v>49</v>
-      </c>
-      <c r="F133" t="s">
-        <v>30</v>
-      </c>
-      <c r="G133" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s">
         <v>68</v>
-      </c>
-      <c r="E134" t="s">
-        <v>116</v>
-      </c>
-      <c r="F134" t="s">
-        <v>69</v>
-      </c>
-      <c r="G134" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="C135" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="C136" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E137" t="s">
         <v>105</v>
       </c>
       <c r="F137" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="C138" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D138" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E138" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" t="s">
         <v>80</v>
-      </c>
-      <c r="F138" t="s">
-        <v>32</v>
-      </c>
-      <c r="G138" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D139" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E139" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D140" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="G140" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D141" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G141" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D142" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="C143" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="C144" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D144" t="s">
         <v>32</v>
@@ -4252,247 +4612,247 @@
         <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="C145" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D145" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G145" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="C146" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E146" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D147" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="E147" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="C148" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D148" t="s">
+        <v>80</v>
+      </c>
+      <c r="E148" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" t="s">
         <v>110</v>
       </c>
-      <c r="E148" t="s">
-        <v>68</v>
-      </c>
-      <c r="F148" t="s">
-        <v>28</v>
-      </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="C149" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E149" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G149" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="C150" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
         <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E151" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G151" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
-        <v>197</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D152" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G152" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="C153" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D153" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E153" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G153" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="C154" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E154" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G154" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="C155" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D155" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E155" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D156" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" t="s">
+        <v>40</v>
+      </c>
+      <c r="F156" t="s">
         <v>28</v>
-      </c>
-      <c r="E156" t="s">
-        <v>41</v>
-      </c>
-      <c r="F156" t="s">
-        <v>105</v>
       </c>
       <c r="G156" t="s">
         <v>15</v>
@@ -4500,19 +4860,19 @@
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="C157" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D157" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>9</v>
@@ -4520,379 +4880,379 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="C158" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D158" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E158" t="s">
         <v>68</v>
       </c>
       <c r="F158" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="C159" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F159" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="C160" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D160" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="2" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="C161" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E161" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="C162" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D162" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" t="s">
+        <v>49</v>
+      </c>
+      <c r="F162" t="s">
+        <v>25</v>
+      </c>
+      <c r="G162" t="s">
         <v>69</v>
-      </c>
-      <c r="E162" t="s">
-        <v>66</v>
-      </c>
-      <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="C163" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D163" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="C164" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D164" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E164" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="2" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="C165" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D165" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="F165" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
         <v>10</v>
-      </c>
-      <c r="G165" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="C166" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D166" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="C167" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D167" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G167" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="C168" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D168" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E168" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G168" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="2" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="C169" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D169" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G169" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="C170" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D170" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G170" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="2" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="C171" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D171" t="s">
+        <v>105</v>
+      </c>
+      <c r="E171" t="s">
+        <v>41</v>
+      </c>
+      <c r="F171" t="s">
+        <v>11</v>
+      </c>
+      <c r="G171" t="s">
         <v>80</v>
-      </c>
-      <c r="E171" t="s">
-        <v>30</v>
-      </c>
-      <c r="F171" t="s">
-        <v>116</v>
-      </c>
-      <c r="G171" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="C172" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D172" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="C173" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D173" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G173" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="C174" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D174" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="2" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="C175" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D175" t="s">
         <v>50</v>
       </c>
       <c r="E175" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G175" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="C176" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E176" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G176" t="s">
         <v>49</v>
@@ -4900,471 +5260,2511 @@
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="C177" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D177" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="C178" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D178" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F178" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G178" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="C179" t="s">
         <v>64</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E179" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F179" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="C180" t="s">
         <v>64</v>
       </c>
       <c r="D180" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E180" t="s">
+        <v>105</v>
+      </c>
+      <c r="F180" t="s">
         <v>21</v>
       </c>
-      <c r="F180" t="s">
-        <v>41</v>
-      </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="C181" t="s">
         <v>64</v>
       </c>
       <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" t="s">
+        <v>29</v>
+      </c>
+      <c r="F181" t="s">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B182" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C182" t="s">
+        <v>64</v>
+      </c>
+      <c r="D182" t="s">
+        <v>50</v>
+      </c>
+      <c r="E182" t="s">
+        <v>47</v>
+      </c>
+      <c r="F182" t="s">
+        <v>40</v>
+      </c>
+      <c r="G182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B183" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" t="s">
+        <v>64</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" t="s">
+        <v>25</v>
+      </c>
+      <c r="G183" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B184" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C184" t="s">
+        <v>131</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
+      </c>
+      <c r="E184" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" t="s">
+        <v>68</v>
+      </c>
+      <c r="G184" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B185" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C185" t="s">
+        <v>131</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185" t="s">
+        <v>105</v>
+      </c>
+      <c r="G185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B186" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C186" t="s">
+        <v>131</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>105</v>
+      </c>
+      <c r="F186" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B187" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" t="s">
+        <v>131</v>
+      </c>
+      <c r="D187" t="s">
+        <v>105</v>
+      </c>
+      <c r="E187" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" t="s">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
         <v>24</v>
       </c>
-      <c r="E181" t="s">
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B188" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C188" t="s">
+        <v>131</v>
+      </c>
+      <c r="D188" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" t="s">
+        <v>66</v>
+      </c>
+      <c r="F188" t="s">
+        <v>47</v>
+      </c>
+      <c r="G188" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B189" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C189" t="s">
+        <v>131</v>
+      </c>
+      <c r="D189" t="s">
+        <v>40</v>
+      </c>
+      <c r="E189" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" t="s">
         <v>9</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B190" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C190" t="s">
+        <v>131</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>23</v>
+      </c>
+      <c r="F190" t="s">
+        <v>47</v>
+      </c>
+      <c r="G190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B191" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C191" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" t="s">
         <v>25</v>
       </c>
-      <c r="G181" t="s">
+      <c r="E191" t="s">
+        <v>49</v>
+      </c>
+      <c r="F191" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B192" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C192" t="s">
+        <v>131</v>
+      </c>
+      <c r="D192" t="s">
+        <v>68</v>
+      </c>
+      <c r="E192" t="s">
+        <v>116</v>
+      </c>
+      <c r="F192" t="s">
+        <v>69</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B193" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" t="s">
+        <v>47</v>
+      </c>
+      <c r="F193" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C194" t="s">
+        <v>131</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>45</v>
+      </c>
+      <c r="G194" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C195" t="s">
+        <v>131</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>105</v>
+      </c>
+      <c r="F195" t="s">
+        <v>80</v>
+      </c>
+      <c r="G195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C196" t="s">
+        <v>131</v>
+      </c>
+      <c r="D196" t="s">
+        <v>30</v>
+      </c>
+      <c r="E196" t="s">
+        <v>80</v>
+      </c>
+      <c r="F196" t="s">
+        <v>32</v>
+      </c>
+      <c r="G196" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C197" t="s">
+        <v>131</v>
+      </c>
+      <c r="D197" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" t="s">
+        <v>80</v>
+      </c>
+      <c r="F197" t="s">
+        <v>23</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C198" t="s">
+        <v>131</v>
+      </c>
+      <c r="D198" t="s">
+        <v>45</v>
+      </c>
+      <c r="E198" t="s">
+        <v>66</v>
+      </c>
+      <c r="F198" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C199" t="s">
+        <v>131</v>
+      </c>
+      <c r="D199" t="s">
+        <v>32</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C200" t="s">
+        <v>131</v>
+      </c>
+      <c r="D200" t="s">
+        <v>50</v>
+      </c>
+      <c r="E200" t="s">
+        <v>32</v>
+      </c>
+      <c r="F200" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C201" t="s">
+        <v>131</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B202" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C202" t="s">
+        <v>131</v>
+      </c>
+      <c r="D202" t="s">
+        <v>32</v>
+      </c>
+      <c r="E202" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B203" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C203" t="s">
+        <v>131</v>
+      </c>
+      <c r="D203" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" t="s">
+        <v>80</v>
+      </c>
+      <c r="F203" t="s">
+        <v>66</v>
+      </c>
+      <c r="G203" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C204" t="s">
+        <v>131</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" t="s">
+        <v>110</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C205" t="s">
+        <v>131</v>
+      </c>
+      <c r="D205" t="s">
+        <v>116</v>
+      </c>
+      <c r="E205" t="s">
+        <v>105</v>
+      </c>
+      <c r="F205" t="s">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B206" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C206" t="s">
+        <v>131</v>
+      </c>
+      <c r="D206" t="s">
+        <v>110</v>
+      </c>
+      <c r="E206" t="s">
+        <v>68</v>
+      </c>
+      <c r="F206" t="s">
+        <v>28</v>
+      </c>
+      <c r="G206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C207" t="s">
+        <v>131</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
+        <v>68</v>
+      </c>
+      <c r="F207" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B208" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C208" t="s">
+        <v>131</v>
+      </c>
+      <c r="D208" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" t="s">
+        <v>34</v>
+      </c>
+      <c r="F208" t="s">
+        <v>80</v>
+      </c>
+      <c r="G208" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B209" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C209" t="s">
+        <v>131</v>
+      </c>
+      <c r="D209" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" t="s">
+        <v>36</v>
+      </c>
+      <c r="F209" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B210" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C210" t="s">
+        <v>131</v>
+      </c>
+      <c r="D210" t="s">
+        <v>41</v>
+      </c>
+      <c r="E210" t="s">
+        <v>40</v>
+      </c>
+      <c r="F210" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B211" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C211" t="s">
+        <v>131</v>
+      </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
+      <c r="E211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" t="s">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B212" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C212" t="s">
+        <v>131</v>
+      </c>
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" t="s">
+        <v>69</v>
+      </c>
+      <c r="F212" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B213" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C213" t="s">
+        <v>131</v>
+      </c>
+      <c r="D213" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" t="s">
+        <v>20</v>
+      </c>
+      <c r="F213" t="s">
+        <v>105</v>
+      </c>
+      <c r="G213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B214" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C214" t="s">
+        <v>131</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" t="s">
+        <v>41</v>
+      </c>
+      <c r="F214" t="s">
+        <v>105</v>
+      </c>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B215" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C215" t="s">
+        <v>131</v>
+      </c>
+      <c r="D215" t="s">
+        <v>25</v>
+      </c>
+      <c r="E215" t="s">
+        <v>35</v>
+      </c>
+      <c r="F215" t="s">
+        <v>34</v>
+      </c>
+      <c r="G215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B216" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C216" t="s">
+        <v>131</v>
+      </c>
+      <c r="D216" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B182" s="2"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B185" s="2"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B187" s="2"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B188" s="2"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B190" s="2"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B191" s="2"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B192" s="2"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="2"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="2"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" s="2"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199" s="2"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" s="2"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201" s="2"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="2"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" s="2"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" s="2"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="2"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208" s="2"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" s="2"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" s="2"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B211" s="2"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B212" s="2"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B213" s="2"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B214" s="2"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" s="2"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="2"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B217" s="2"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" s="2"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="2"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" s="2"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" s="2"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="2"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" s="2"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" s="2"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" s="2"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B228" s="2"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" s="2"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B230" s="2"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" s="2"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B232" s="2"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B233" s="2"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B234" s="2"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B235" s="2"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" s="2"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B237" s="2"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" s="2"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" s="2"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" s="2"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" s="2"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B244" s="2"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" s="2"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B247" s="2"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B248" s="2"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B249" s="2"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B250" s="2"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B251" s="2"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B252" s="2"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B253" s="2"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" s="2"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B255" s="2"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B256" s="2"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B257" s="2"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B258" s="2"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B259" s="2"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B260" s="2"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B261" s="2"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B262" s="2"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B263" s="2"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B264" s="2"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B265" s="2"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B266" s="2"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B267" s="2"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B268" s="2"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B269" s="2"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B270" s="2"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B271" s="2"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B272" s="2"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B273" s="2"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" s="2"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B275" s="2"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="2"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B278" s="2"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B279" s="2"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B280" s="2"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B281" s="2"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B282" s="2"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B283" s="2"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B284" s="2"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B285" s="2"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B286" s="2"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B287" s="2"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B288" s="2"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B289" s="2"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" s="2"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B291" s="2"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="2"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B293" s="2"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B294" s="2"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B295" s="2"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B296" s="2"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B297" s="2"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B298" s="2"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B299" s="2"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B300" s="2"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B301" s="2"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="E216" t="s">
+        <v>68</v>
+      </c>
+      <c r="F216" t="s">
+        <v>110</v>
+      </c>
+      <c r="G216" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B217" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C217" t="s">
+        <v>131</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" t="s">
+        <v>47</v>
+      </c>
+      <c r="G217" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B218" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C218" t="s">
+        <v>131</v>
+      </c>
+      <c r="D218" t="s">
+        <v>36</v>
+      </c>
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" t="s">
+        <v>34</v>
+      </c>
+      <c r="G218" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B219" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C219" t="s">
+        <v>131</v>
+      </c>
+      <c r="D219" t="s">
+        <v>30</v>
+      </c>
+      <c r="E219" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" t="s">
+        <v>40</v>
+      </c>
+      <c r="G219" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B220" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C220" t="s">
+        <v>131</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" t="s">
+        <v>66</v>
+      </c>
+      <c r="F220" t="s">
+        <v>19</v>
+      </c>
+      <c r="G220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B221" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C221" t="s">
+        <v>131</v>
+      </c>
+      <c r="D221" t="s">
+        <v>116</v>
+      </c>
+      <c r="E221" t="s">
+        <v>34</v>
+      </c>
+      <c r="F221" t="s">
+        <v>35</v>
+      </c>
+      <c r="G221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B222" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C222" t="s">
+        <v>131</v>
+      </c>
+      <c r="D222" t="s">
+        <v>41</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" t="s">
+        <v>50</v>
+      </c>
+      <c r="G222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B223" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C223" t="s">
+        <v>131</v>
+      </c>
+      <c r="D223" t="s">
+        <v>23</v>
+      </c>
+      <c r="E223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B224" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C224" t="s">
+        <v>131</v>
+      </c>
+      <c r="D224" t="s">
+        <v>30</v>
+      </c>
+      <c r="E224" t="s">
+        <v>24</v>
+      </c>
+      <c r="F224" t="s">
+        <v>45</v>
+      </c>
+      <c r="G224" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B225" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C225" t="s">
+        <v>131</v>
+      </c>
+      <c r="D225" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" t="s">
+        <v>30</v>
+      </c>
+      <c r="F225" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B226" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C226" t="s">
+        <v>131</v>
+      </c>
+      <c r="D226" t="s">
+        <v>21</v>
+      </c>
+      <c r="E226" t="s">
+        <v>25</v>
+      </c>
+      <c r="F226" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B227" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C227" t="s">
+        <v>131</v>
+      </c>
+      <c r="D227" t="s">
+        <v>105</v>
+      </c>
+      <c r="E227" t="s">
+        <v>29</v>
+      </c>
+      <c r="F227" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B228" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C228" t="s">
+        <v>131</v>
+      </c>
+      <c r="D228" t="s">
+        <v>105</v>
+      </c>
+      <c r="E228" t="s">
+        <v>30</v>
+      </c>
+      <c r="F228" t="s">
+        <v>21</v>
+      </c>
+      <c r="G228" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B229" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C229" t="s">
+        <v>131</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" t="s">
+        <v>41</v>
+      </c>
+      <c r="F229" t="s">
+        <v>116</v>
+      </c>
+      <c r="G229" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B230" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C230" t="s">
+        <v>131</v>
+      </c>
+      <c r="D230" t="s">
+        <v>25</v>
+      </c>
+      <c r="E230" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" t="s">
+        <v>41</v>
+      </c>
+      <c r="G230" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B231" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C231" t="s">
+        <v>131</v>
+      </c>
+      <c r="D231" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" t="s">
+        <v>23</v>
+      </c>
+      <c r="G231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B232" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C232" t="s">
+        <v>131</v>
+      </c>
+      <c r="D232" t="s">
+        <v>47</v>
+      </c>
+      <c r="E232" t="s">
+        <v>36</v>
+      </c>
+      <c r="F232" t="s">
+        <v>66</v>
+      </c>
+      <c r="G232" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B233" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C233" t="s">
+        <v>131</v>
+      </c>
+      <c r="D233" t="s">
+        <v>50</v>
+      </c>
+      <c r="E233" t="s">
+        <v>68</v>
+      </c>
+      <c r="F233" t="s">
+        <v>35</v>
+      </c>
+      <c r="G233" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B234" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C234" t="s">
+        <v>131</v>
+      </c>
+      <c r="D234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B235" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C235" t="s">
+        <v>131</v>
+      </c>
+      <c r="D235" t="s">
+        <v>116</v>
+      </c>
+      <c r="E235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" t="s">
+        <v>41</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B236" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C236" t="s">
+        <v>131</v>
+      </c>
+      <c r="D236" t="s">
+        <v>68</v>
+      </c>
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236" t="s">
+        <v>50</v>
+      </c>
+      <c r="G236" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B237" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C237" t="s">
+        <v>64</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" t="s">
+        <v>47</v>
+      </c>
+      <c r="G237" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B238" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C238" t="s">
+        <v>64</v>
+      </c>
+      <c r="D238" t="s">
+        <v>80</v>
+      </c>
+      <c r="E238" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238" t="s">
+        <v>41</v>
+      </c>
+      <c r="G238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B239" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C239" t="s">
+        <v>64</v>
+      </c>
+      <c r="D239" t="s">
+        <v>24</v>
+      </c>
+      <c r="E239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>25</v>
+      </c>
+      <c r="G239" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B240" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C240" t="s">
+        <v>64</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>24</v>
+      </c>
+      <c r="F240" t="s">
+        <v>49</v>
+      </c>
+      <c r="G240" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B241" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C241" t="s">
+        <v>64</v>
+      </c>
+      <c r="D241" t="s">
+        <v>21</v>
+      </c>
+      <c r="E241" t="s">
+        <v>47</v>
+      </c>
+      <c r="F241" t="s">
+        <v>68</v>
+      </c>
+      <c r="G241" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B242" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C242" t="s">
+        <v>64</v>
+      </c>
+      <c r="D242" t="s">
+        <v>116</v>
+      </c>
+      <c r="E242" t="s">
+        <v>28</v>
+      </c>
+      <c r="F242" t="s">
+        <v>11</v>
+      </c>
+      <c r="G242" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B243" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C243" t="s">
+        <v>64</v>
+      </c>
+      <c r="D243" t="s">
+        <v>80</v>
+      </c>
+      <c r="E243" t="s">
+        <v>29</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B244" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C244" t="s">
+        <v>64</v>
+      </c>
+      <c r="D244" t="s">
+        <v>45</v>
+      </c>
+      <c r="E244" t="s">
+        <v>19</v>
+      </c>
+      <c r="F244" t="s">
+        <v>21</v>
+      </c>
+      <c r="G244" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B245" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C245" t="s">
+        <v>64</v>
+      </c>
+      <c r="D245" t="s">
+        <v>66</v>
+      </c>
+      <c r="E245" t="s">
+        <v>41</v>
+      </c>
+      <c r="F245" t="s">
+        <v>45</v>
+      </c>
+      <c r="G245" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B246" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C246" t="s">
+        <v>64</v>
+      </c>
+      <c r="D246" t="s">
+        <v>35</v>
+      </c>
+      <c r="E246" t="s">
+        <v>110</v>
+      </c>
+      <c r="F246" t="s">
+        <v>32</v>
+      </c>
+      <c r="G246" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B247" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C247" t="s">
+        <v>64</v>
+      </c>
+      <c r="D247" t="s">
+        <v>19</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" t="s">
+        <v>15</v>
+      </c>
+      <c r="G247" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B248" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C248" t="s">
+        <v>64</v>
+      </c>
+      <c r="D248" t="s">
+        <v>24</v>
+      </c>
+      <c r="E248" t="s">
+        <v>34</v>
+      </c>
+      <c r="F248" t="s">
+        <v>105</v>
+      </c>
+      <c r="G248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B249" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C249" t="s">
+        <v>64</v>
+      </c>
+      <c r="D249" t="s">
+        <v>110</v>
+      </c>
+      <c r="E249" t="s">
+        <v>19</v>
+      </c>
+      <c r="F249" t="s">
+        <v>80</v>
+      </c>
+      <c r="G249" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B250" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C250" t="s">
+        <v>64</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250" t="s">
+        <v>40</v>
+      </c>
+      <c r="G250" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B251" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C251" t="s">
+        <v>64</v>
+      </c>
+      <c r="D251" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251" t="s">
+        <v>80</v>
+      </c>
+      <c r="F251" t="s">
+        <v>12</v>
+      </c>
+      <c r="G251" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B252" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C252" t="s">
+        <v>64</v>
+      </c>
+      <c r="D252" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" t="s">
+        <v>19</v>
+      </c>
+      <c r="F252" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B253" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C253" t="s">
+        <v>92</v>
+      </c>
+      <c r="D253" t="s">
+        <v>25</v>
+      </c>
+      <c r="E253" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" t="s">
+        <v>49</v>
+      </c>
+      <c r="G253" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B254" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C254" t="s">
+        <v>92</v>
+      </c>
+      <c r="D254" t="s">
+        <v>105</v>
+      </c>
+      <c r="E254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" t="s">
+        <v>35</v>
+      </c>
+      <c r="G254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B255" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C255" t="s">
+        <v>92</v>
+      </c>
+      <c r="D255" t="s">
+        <v>32</v>
+      </c>
+      <c r="E255" t="s">
+        <v>110</v>
+      </c>
+      <c r="F255" t="s">
+        <v>69</v>
+      </c>
+      <c r="G255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B256" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C256" t="s">
+        <v>92</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256" t="s">
+        <v>21</v>
+      </c>
+      <c r="F256" t="s">
+        <v>45</v>
+      </c>
+      <c r="G256" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B257" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C257" t="s">
+        <v>92</v>
+      </c>
+      <c r="D257" t="s">
+        <v>110</v>
+      </c>
+      <c r="E257" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" t="s">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B258" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C258" t="s">
+        <v>92</v>
+      </c>
+      <c r="D258" t="s">
+        <v>36</v>
+      </c>
+      <c r="E258" t="s">
+        <v>11</v>
+      </c>
+      <c r="F258" t="s">
+        <v>30</v>
+      </c>
+      <c r="G258" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B259" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C259" t="s">
+        <v>92</v>
+      </c>
+      <c r="D259" t="s">
+        <v>30</v>
+      </c>
+      <c r="E259" t="s">
+        <v>68</v>
+      </c>
+      <c r="F259" t="s">
+        <v>38</v>
+      </c>
+      <c r="G259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B260" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C260" t="s">
+        <v>92</v>
+      </c>
+      <c r="D260" t="s">
+        <v>21</v>
+      </c>
+      <c r="E260" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B261" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C261" t="s">
+        <v>92</v>
+      </c>
+      <c r="D261" t="s">
+        <v>105</v>
+      </c>
+      <c r="E261" t="s">
+        <v>49</v>
+      </c>
+      <c r="F261" t="s">
+        <v>47</v>
+      </c>
+      <c r="G261" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B262" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C262" t="s">
+        <v>92</v>
+      </c>
+      <c r="D262" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" t="s">
+        <v>15</v>
+      </c>
+      <c r="F262" t="s">
+        <v>24</v>
+      </c>
+      <c r="G262" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B263" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C263" t="s">
+        <v>92</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F263" t="s">
+        <v>80</v>
+      </c>
+      <c r="G263" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B264" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C264" t="s">
+        <v>92</v>
+      </c>
+      <c r="D264" t="s">
+        <v>30</v>
+      </c>
+      <c r="E264" t="s">
+        <v>35</v>
+      </c>
+      <c r="F264" t="s">
+        <v>50</v>
+      </c>
+      <c r="G264" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B265" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C265" t="s">
+        <v>92</v>
+      </c>
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" t="s">
+        <v>19</v>
+      </c>
+      <c r="G265" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B266" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C266" t="s">
+        <v>92</v>
+      </c>
+      <c r="D266" t="s">
+        <v>49</v>
+      </c>
+      <c r="E266" t="s">
+        <v>38</v>
+      </c>
+      <c r="F266" t="s">
+        <v>9</v>
+      </c>
+      <c r="G266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B267" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C267" t="s">
+        <v>92</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" t="s">
+        <v>41</v>
+      </c>
+      <c r="F267" t="s">
+        <v>36</v>
+      </c>
+      <c r="G267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B268" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C268" t="s">
+        <v>92</v>
+      </c>
+      <c r="D268" t="s">
+        <v>110</v>
+      </c>
+      <c r="E268" t="s">
+        <v>35</v>
+      </c>
+      <c r="F268" t="s">
+        <v>50</v>
+      </c>
+      <c r="G268" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B269" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C269" t="s">
+        <v>92</v>
+      </c>
+      <c r="D269" t="s">
+        <v>110</v>
+      </c>
+      <c r="E269" t="s">
+        <v>40</v>
+      </c>
+      <c r="F269" t="s">
+        <v>15</v>
+      </c>
+      <c r="G269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B270" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C270" t="s">
+        <v>92</v>
+      </c>
+      <c r="D270" t="s">
+        <v>47</v>
+      </c>
+      <c r="E270" t="s">
+        <v>23</v>
+      </c>
+      <c r="F270" t="s">
+        <v>32</v>
+      </c>
+      <c r="G270" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B271" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C271" t="s">
+        <v>92</v>
+      </c>
+      <c r="D271" t="s">
+        <v>116</v>
+      </c>
+      <c r="E271" t="s">
+        <v>66</v>
+      </c>
+      <c r="F271" t="s">
+        <v>105</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B272" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C272" t="s">
+        <v>92</v>
+      </c>
+      <c r="D272" t="s">
+        <v>30</v>
+      </c>
+      <c r="E272" t="s">
+        <v>68</v>
+      </c>
+      <c r="F272" t="s">
+        <v>55</v>
+      </c>
+      <c r="G272" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B273" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C273" t="s">
+        <v>92</v>
+      </c>
+      <c r="D273" t="s">
+        <v>21</v>
+      </c>
+      <c r="E273" t="s">
+        <v>36</v>
+      </c>
+      <c r="F273" t="s">
+        <v>9</v>
+      </c>
+      <c r="G273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B274" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C274" t="s">
+        <v>92</v>
+      </c>
+      <c r="D274" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" t="s">
+        <v>50</v>
+      </c>
+      <c r="F274" t="s">
+        <v>24</v>
+      </c>
+      <c r="G274" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B275" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C275" t="s">
+        <v>92</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" t="s">
+        <v>30</v>
+      </c>
+      <c r="F275" t="s">
+        <v>19</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B276" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C276" t="s">
+        <v>92</v>
+      </c>
+      <c r="D276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
+        <v>19</v>
+      </c>
+      <c r="F276" t="s">
+        <v>30</v>
+      </c>
+      <c r="G276" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B277" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C277" t="s">
+        <v>92</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" t="s">
+        <v>55</v>
+      </c>
+      <c r="F277" t="s">
+        <v>41</v>
+      </c>
+      <c r="G277" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B278" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C278" t="s">
+        <v>92</v>
+      </c>
+      <c r="D278" t="s">
+        <v>14</v>
+      </c>
+      <c r="E278" t="s">
+        <v>41</v>
+      </c>
+      <c r="F278" t="s">
+        <v>38</v>
+      </c>
+      <c r="G278" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B279" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C279" t="s">
+        <v>92</v>
+      </c>
+      <c r="D279" t="s">
+        <v>29</v>
+      </c>
+      <c r="E279" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" t="s">
+        <v>80</v>
+      </c>
+      <c r="G279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B280" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C280" t="s">
+        <v>92</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" t="s">
+        <v>34</v>
+      </c>
+      <c r="F280" t="s">
+        <v>116</v>
+      </c>
+      <c r="G280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B281" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C281" t="s">
+        <v>92</v>
+      </c>
+      <c r="D281" t="s">
+        <v>35</v>
+      </c>
+      <c r="E281" t="s">
+        <v>17</v>
+      </c>
+      <c r="F281" t="s">
+        <v>11</v>
+      </c>
+      <c r="G281" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B282" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C282" t="s">
+        <v>92</v>
+      </c>
+      <c r="D282" t="s">
+        <v>105</v>
+      </c>
+      <c r="E282" t="s">
+        <v>30</v>
+      </c>
+      <c r="F282" t="s">
+        <v>41</v>
+      </c>
+      <c r="G282" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B283" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C283" t="s">
+        <v>92</v>
+      </c>
+      <c r="D283" t="s">
+        <v>47</v>
+      </c>
+      <c r="E283" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" t="s">
+        <v>12</v>
+      </c>
+      <c r="G283" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B284" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C284" t="s">
+        <v>92</v>
+      </c>
+      <c r="D284" t="s">
+        <v>45</v>
+      </c>
+      <c r="E284" t="s">
+        <v>116</v>
+      </c>
+      <c r="F284" t="s">
+        <v>29</v>
+      </c>
+      <c r="G284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B285" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C285" t="s">
+        <v>92</v>
+      </c>
+      <c r="D285" t="s">
+        <v>32</v>
+      </c>
+      <c r="E285" t="s">
+        <v>30</v>
+      </c>
+      <c r="F285" t="s">
+        <v>20</v>
+      </c>
+      <c r="G285" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B286" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C286" t="s">
+        <v>92</v>
+      </c>
+      <c r="D286" t="s">
+        <v>49</v>
+      </c>
+      <c r="E286" t="s">
+        <v>66</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B287" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C287" t="s">
+        <v>92</v>
+      </c>
+      <c r="D287" t="s">
+        <v>40</v>
+      </c>
+      <c r="E287" t="s">
+        <v>24</v>
+      </c>
+      <c r="F287" t="s">
+        <v>36</v>
+      </c>
+      <c r="G287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B288" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C288" t="s">
+        <v>92</v>
+      </c>
+      <c r="D288" t="s">
+        <v>36</v>
+      </c>
+      <c r="E288" t="s">
+        <v>45</v>
+      </c>
+      <c r="F288" t="s">
+        <v>38</v>
+      </c>
+      <c r="G288" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B289" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C289" t="s">
+        <v>92</v>
+      </c>
+      <c r="D289" t="s">
+        <v>66</v>
+      </c>
+      <c r="E289" t="s">
+        <v>80</v>
+      </c>
+      <c r="F289" t="s">
+        <v>28</v>
+      </c>
+      <c r="G289" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B290" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C290" t="s">
+        <v>92</v>
+      </c>
+      <c r="D290" t="s">
+        <v>80</v>
+      </c>
+      <c r="E290" t="s">
+        <v>47</v>
+      </c>
+      <c r="F290" t="s">
+        <v>28</v>
+      </c>
+      <c r="G290" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B291" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C291" t="s">
+        <v>27</v>
+      </c>
+      <c r="D291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" t="s">
+        <v>41</v>
+      </c>
+      <c r="F291" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B292" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C292" t="s">
+        <v>27</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" t="s">
+        <v>23</v>
+      </c>
+      <c r="F292" t="s">
+        <v>19</v>
+      </c>
+      <c r="G292" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B293" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C293" t="s">
+        <v>27</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>50</v>
+      </c>
+      <c r="F293" t="s">
+        <v>68</v>
+      </c>
+      <c r="G293" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B294" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C294" t="s">
+        <v>27</v>
+      </c>
+      <c r="D294" t="s">
+        <v>23</v>
+      </c>
+      <c r="E294" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" t="s">
+        <v>17</v>
+      </c>
+      <c r="G294" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B295" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C295" t="s">
+        <v>27</v>
+      </c>
+      <c r="D295" t="s">
+        <v>20</v>
+      </c>
+      <c r="E295" t="s">
+        <v>25</v>
+      </c>
+      <c r="F295" t="s">
+        <v>40</v>
+      </c>
+      <c r="G295" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B296" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C296" t="s">
+        <v>27</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" t="s">
+        <v>47</v>
+      </c>
+      <c r="F296" t="s">
+        <v>32</v>
+      </c>
+      <c r="G296" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B297" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C297" t="s">
+        <v>27</v>
+      </c>
+      <c r="D297" t="s">
+        <v>47</v>
+      </c>
+      <c r="E297" t="s">
+        <v>80</v>
+      </c>
+      <c r="F297" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B298" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C298" t="s">
+        <v>27</v>
+      </c>
+      <c r="D298" t="s">
+        <v>45</v>
+      </c>
+      <c r="E298" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298" t="s">
+        <v>17</v>
+      </c>
+      <c r="G298" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B299" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C299" t="s">
+        <v>27</v>
+      </c>
+      <c r="D299" t="s">
+        <v>28</v>
+      </c>
+      <c r="E299" t="s">
+        <v>66</v>
+      </c>
+      <c r="F299" t="s">
+        <v>36</v>
+      </c>
+      <c r="G299" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B300" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C300" t="s">
+        <v>27</v>
+      </c>
+      <c r="D300" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300" t="s">
+        <v>68</v>
+      </c>
+      <c r="F300" t="s">
+        <v>19</v>
+      </c>
+      <c r="G300" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B301" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C301" t="s">
+        <v>27</v>
+      </c>
+      <c r="D301" t="s">
+        <v>49</v>
+      </c>
+      <c r="E301" t="s">
+        <v>38</v>
+      </c>
+      <c r="F301" t="s">
+        <v>50</v>
+      </c>
+      <c r="G301" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B302" s="2"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B303" s="2"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B304" s="2"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.2">
